--- a/dist/document/dest/2020/10/chi lam/85_dqt.xlsx
+++ b/dist/document/dest/2020/10/chi lam/85_dqt.xlsx
@@ -16,13 +16,13 @@
     <t>Công ty TNHH DP Hoàng Trân</t>
   </si>
   <si>
-    <t>Trình Dược Viên: chi lam</t>
-  </si>
-  <si>
-    <t>PHÍ THÁNG (01/09 -&gt; 30/09/2020)</t>
-  </si>
-  <si>
-    <t>Bác Sĩ: Dương Quang Triết</t>
+    <t>TDV: chi lam</t>
+  </si>
+  <si>
+    <t>27/10/2020</t>
+  </si>
+  <si>
+    <t>Kính gửi khách hàng: 85</t>
   </si>
   <si>
     <t>STT</t>
@@ -46,19 +46,19 @@
     <t>CK</t>
   </si>
   <si>
-    <t>BS One</t>
-  </si>
-  <si>
-    <t>Picencal</t>
-  </si>
-  <si>
-    <t>Lucass 200</t>
-  </si>
-  <si>
-    <t>Celivite</t>
-  </si>
-  <si>
-    <t>Celevox</t>
+    <t>BS O**</t>
+  </si>
+  <si>
+    <t>Pice****</t>
+  </si>
+  <si>
+    <t>Luca******</t>
+  </si>
+  <si>
+    <t>Celi****</t>
+  </si>
+  <si>
+    <t>Cele***</t>
   </si>
   <si>
     <t>Tổng cộng</t>
@@ -593,19 +593,19 @@
         <v>11</v>
       </c>
       <c r="C6" s="10">
-        <v>3960</v>
+        <v>2640</v>
       </c>
       <c r="D6" s="10">
         <v>4000</v>
       </c>
       <c r="E6" s="10">
-        <v>15840000</v>
+        <v>10560000</v>
       </c>
       <c r="F6" s="10">
         <v>40</v>
       </c>
       <c r="G6" s="10">
-        <v>6336000</v>
+        <v>4224000</v>
       </c>
     </row>
     <row r="7" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -616,19 +616,19 @@
         <v>12</v>
       </c>
       <c r="C7" s="10">
-        <v>750</v>
+        <v>690</v>
       </c>
       <c r="D7" s="10">
         <v>2900</v>
       </c>
       <c r="E7" s="10">
-        <v>2175000</v>
+        <v>2001000</v>
       </c>
       <c r="F7" s="10">
         <v>40</v>
       </c>
       <c r="G7" s="10">
-        <v>870000</v>
+        <v>800400</v>
       </c>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -639,19 +639,19 @@
         <v>13</v>
       </c>
       <c r="C8" s="10">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="D8" s="10">
         <v>14700</v>
       </c>
       <c r="E8" s="10">
-        <v>3057600</v>
+        <v>2205000</v>
       </c>
       <c r="F8" s="10">
         <v>45</v>
       </c>
       <c r="G8" s="10">
-        <v>1375920</v>
+        <v>992250</v>
       </c>
     </row>
     <row r="9" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -662,19 +662,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="10">
-        <v>5794</v>
+        <v>3751</v>
       </c>
       <c r="D9" s="10">
         <v>3000</v>
       </c>
       <c r="E9" s="10">
-        <v>17382000</v>
+        <v>11253000</v>
       </c>
       <c r="F9" s="10">
         <v>45</v>
       </c>
       <c r="G9" s="10">
-        <v>7821900</v>
+        <v>5063850</v>
       </c>
     </row>
     <row r="10" ht="16" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -685,19 +685,19 @@
         <v>15</v>
       </c>
       <c r="C10" s="10">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D10" s="10">
         <v>12000</v>
       </c>
       <c r="E10" s="10">
-        <v>1536000</v>
+        <v>1224000</v>
       </c>
       <c r="F10" s="10">
         <v>40</v>
       </c>
       <c r="G10" s="10">
-        <v>614400</v>
+        <v>489600</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -706,15 +706,15 @@
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="11">
-        <v>10840</v>
+        <v>7333</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>39990600</v>
+        <v>27243000</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11">
-        <v>17018220</v>
+        <v>11570100</v>
       </c>
     </row>
     <row r="12" ht="16" customHeight="1" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
